--- a/datsets/example_ui_log - Copy.xlsx
+++ b/datsets/example_ui_log - Copy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Besitzer\Documents\GitHub\master_thesis\Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Besitzer\Documents\Master\Thesis\Code\datsets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F60A48-2001-48D8-94B3-4E76B5E1F7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA3A8D1-99C3-44F2-832F-27DEDE2D90E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{47059711-E256-425D-A633-C5E176CB9413}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
   <si>
     <t>label</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Hag_01@gmail.com</t>
   </si>
   <si>
-    <t>Doja1988@yahoo.de</t>
-  </si>
-  <si>
     <t>123JoRo@outlook.com</t>
   </si>
   <si>
@@ -129,6 +126,21 @@
   </si>
   <si>
     <t xml:space="preserve">followLink </t>
+  </si>
+  <si>
+    <t>application</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Safari</t>
+  </si>
+  <si>
+    <t>Opera</t>
+  </si>
+  <si>
+    <t>Doja1987@yahoo.de</t>
   </si>
 </sst>
 </file>
@@ -495,57 +507,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7709AEE-FDB7-460E-A42D-6D4D68D9F405}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2">
         <v>45066.379861111112</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
@@ -555,14 +574,15 @@
       <c r="C3" s="2">
         <v>45066.381944444445</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="2"/>
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0</v>
       </c>
@@ -572,14 +592,15 @@
       <c r="C4" s="2">
         <v>45066.383333333331</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" s="2"/>
+      <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0</v>
       </c>
@@ -589,11 +610,12 @@
       <c r="C5" s="2">
         <v>45066.384027777778</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" s="2"/>
+      <c r="F5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -603,11 +625,14 @@
       <c r="C6" s="2">
         <v>45081.638888888891</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -617,14 +642,15 @@
       <c r="C7" s="2">
         <v>45081.642361111109</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" s="2"/>
+      <c r="F7" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -634,14 +660,15 @@
       <c r="C8" s="2">
         <v>45081.643055555556</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8" s="2"/>
+      <c r="F8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -651,11 +678,12 @@
       <c r="C9" s="2">
         <v>45081.644444444442</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9" s="2"/>
+      <c r="F9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2</v>
       </c>
@@ -665,11 +693,14 @@
       <c r="C10" s="2">
         <v>45099.839583333334</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
@@ -679,14 +710,15 @@
       <c r="C11" s="2">
         <v>45099.84097222222</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D11" s="2"/>
+      <c r="F11" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2</v>
       </c>
@@ -696,14 +728,15 @@
       <c r="C12" s="2">
         <v>45099.84375</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D12" s="2"/>
+      <c r="F12" t="s">
         <v>6</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
@@ -713,11 +746,12 @@
       <c r="C13" s="2">
         <v>45099.844444444447</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D13" s="2"/>
+      <c r="F13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3</v>
       </c>
@@ -727,11 +761,12 @@
       <c r="C14" s="2">
         <v>45126.496527777781</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>3</v>
       </c>
@@ -741,14 +776,15 @@
       <c r="C15" s="2">
         <v>45126.49722222222</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D15" s="2"/>
+      <c r="F15" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3</v>
       </c>
@@ -758,14 +794,15 @@
       <c r="C16" s="2">
         <v>45126.498611111114</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D16" s="2"/>
+      <c r="F16" t="s">
         <v>6</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>3</v>
       </c>
@@ -775,11 +812,12 @@
       <c r="C17" s="2">
         <v>45126.499305555553</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D17" s="2"/>
+      <c r="F17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>4</v>
       </c>
@@ -789,11 +827,12 @@
       <c r="C18" s="2">
         <v>45129.144444444442</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>4</v>
       </c>
@@ -803,14 +842,15 @@
       <c r="C19" s="2">
         <v>45129.145138888889</v>
       </c>
-      <c r="E19" t="s">
+      <c r="D19" s="2"/>
+      <c r="F19" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>4</v>
       </c>
@@ -820,14 +860,15 @@
       <c r="C20" s="2">
         <v>45129.148611111108</v>
       </c>
-      <c r="E20" t="s">
+      <c r="D20" s="2"/>
+      <c r="F20" t="s">
         <v>6</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>4</v>
       </c>
@@ -837,11 +878,12 @@
       <c r="C21" s="2">
         <v>45129.152777777781</v>
       </c>
-      <c r="E21" t="s">
+      <c r="D21" s="2"/>
+      <c r="F21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>5</v>
       </c>
@@ -851,11 +893,12 @@
       <c r="C22" s="2">
         <v>45129.716666666667</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2"/>
+      <c r="E22" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>5</v>
       </c>
@@ -865,14 +908,15 @@
       <c r="C23" s="2">
         <v>45129.720138888886</v>
       </c>
-      <c r="E23" t="s">
+      <c r="D23" s="2"/>
+      <c r="F23" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>5</v>
       </c>
@@ -882,14 +926,15 @@
       <c r="C24" s="2">
         <v>45129.720833333333</v>
       </c>
-      <c r="E24" t="s">
+      <c r="D24" s="2"/>
+      <c r="F24" t="s">
         <v>6</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>5</v>
       </c>
@@ -899,11 +944,12 @@
       <c r="C25" s="2">
         <v>45129.722222222219</v>
       </c>
-      <c r="E25" t="s">
+      <c r="D25" s="2"/>
+      <c r="F25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>6</v>
       </c>
@@ -913,11 +959,12 @@
       <c r="C26" s="2">
         <v>45130.564583333333</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2"/>
+      <c r="E26" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>6</v>
       </c>
@@ -927,14 +974,15 @@
       <c r="C27" s="2">
         <v>45130.569444444445</v>
       </c>
-      <c r="E27" t="s">
+      <c r="D27" s="2"/>
+      <c r="F27" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>6</v>
       </c>
@@ -944,14 +992,15 @@
       <c r="C28" s="2">
         <v>45130.570138888892</v>
       </c>
-      <c r="E28" t="s">
+      <c r="D28" s="2"/>
+      <c r="F28" t="s">
         <v>6</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>6</v>
       </c>
@@ -961,26 +1010,27 @@
       <c r="C29" s="2">
         <v>45130.570833333331</v>
       </c>
-      <c r="E29" t="s">
+      <c r="D29" s="2"/>
+      <c r="F29" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{06AB1604-1FB6-48D6-B5E6-37D63BDE1200}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{B098F11A-3879-4FC1-8ACD-30ECC49AC74F}"/>
-    <hyperlink ref="D10" r:id="rId3" xr:uid="{E6102686-44F8-445F-9747-3711FFC47741}"/>
-    <hyperlink ref="D14" r:id="rId4" xr:uid="{FA8CCDC4-94B2-4EC4-8D7E-1D7055F0DD94}"/>
-    <hyperlink ref="D18" r:id="rId5" xr:uid="{BA0F8E73-FC46-47C3-B99E-7DD25BDDDBD3}"/>
-    <hyperlink ref="D22" r:id="rId6" xr:uid="{0D240AA1-8660-4B45-807F-F6D23D2CD4D4}"/>
-    <hyperlink ref="D26" r:id="rId7" xr:uid="{CE8F652D-D757-4A2F-8B2C-97FA6C210016}"/>
-    <hyperlink ref="F3" r:id="rId8" xr:uid="{9F5CE878-E892-4953-B32B-CFF9986E09D8}"/>
-    <hyperlink ref="F7" r:id="rId9" xr:uid="{656FEAFE-BF6D-46FF-AED3-D2E1F148AE67}"/>
-    <hyperlink ref="F11" r:id="rId10" xr:uid="{73DED89D-7772-4140-9780-06D24338AC2A}"/>
-    <hyperlink ref="F15" r:id="rId11" xr:uid="{D95B0798-86DE-4CB1-A6C2-673F50AB3252}"/>
-    <hyperlink ref="F19" r:id="rId12" xr:uid="{8A1A22C5-8B67-409F-A853-C5A55D83530C}"/>
-    <hyperlink ref="F23" r:id="rId13" xr:uid="{EC97F972-AB95-4D0E-B286-C2135CD24781}"/>
-    <hyperlink ref="F27" r:id="rId14" xr:uid="{6DBB6E66-B2D8-4F57-848C-29D98D51CFFD}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{06AB1604-1FB6-48D6-B5E6-37D63BDE1200}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{B098F11A-3879-4FC1-8ACD-30ECC49AC74F}"/>
+    <hyperlink ref="E10" r:id="rId3" xr:uid="{E6102686-44F8-445F-9747-3711FFC47741}"/>
+    <hyperlink ref="E14" r:id="rId4" xr:uid="{FA8CCDC4-94B2-4EC4-8D7E-1D7055F0DD94}"/>
+    <hyperlink ref="E18" r:id="rId5" xr:uid="{BA0F8E73-FC46-47C3-B99E-7DD25BDDDBD3}"/>
+    <hyperlink ref="E22" r:id="rId6" xr:uid="{0D240AA1-8660-4B45-807F-F6D23D2CD4D4}"/>
+    <hyperlink ref="E26" r:id="rId7" xr:uid="{CE8F652D-D757-4A2F-8B2C-97FA6C210016}"/>
+    <hyperlink ref="G3" r:id="rId8" xr:uid="{9F5CE878-E892-4953-B32B-CFF9986E09D8}"/>
+    <hyperlink ref="G7" r:id="rId9" xr:uid="{656FEAFE-BF6D-46FF-AED3-D2E1F148AE67}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{73DED89D-7772-4140-9780-06D24338AC2A}"/>
+    <hyperlink ref="G15" r:id="rId11" xr:uid="{D95B0798-86DE-4CB1-A6C2-673F50AB3252}"/>
+    <hyperlink ref="G19" r:id="rId12" xr:uid="{8A1A22C5-8B67-409F-A853-C5A55D83530C}"/>
+    <hyperlink ref="G23" r:id="rId13" xr:uid="{EC97F972-AB95-4D0E-B286-C2135CD24781}"/>
+    <hyperlink ref="G27" r:id="rId14" xr:uid="{6DBB6E66-B2D8-4F57-848C-29D98D51CFFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
